--- a/Novo Gantt.xlsx
+++ b/Novo Gantt.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" hidePivotFieldList="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB5D2FD4-AB0B-405B-83BB-C8AA76C3137E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCBBDF05-E898-4001-9B2E-226DC21487F8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28920" windowHeight="16215" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5556" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Novo Gantt" sheetId="15" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="36">
   <si>
     <t>Sebastião</t>
   </si>
@@ -114,28 +114,28 @@
     <t>Sérgio</t>
   </si>
   <si>
-    <t>Planilhas em Excel</t>
-  </si>
-  <si>
-    <t>Anderson/Sebastião</t>
-  </si>
-  <si>
     <t>Apresentação (CANVA)</t>
-  </si>
-  <si>
-    <t>2° sprint (24/10/2025)</t>
-  </si>
-  <si>
-    <t>Power bi (Análise dos dados)</t>
   </si>
   <si>
     <t>Gráfico Gantt</t>
   </si>
   <si>
-    <t>Sebastião/Anderson</t>
+    <t>Mapa Mental</t>
   </si>
   <si>
-    <t>MVP</t>
+    <t>Github do grupo</t>
+  </si>
+  <si>
+    <t>2° sprint (10/11/2025)</t>
+  </si>
+  <si>
+    <t>Santos/Sérgio/Luís/Léo</t>
+  </si>
+  <si>
+    <t>Power bi (dados exp.)</t>
+  </si>
+  <si>
+    <t>Power bi (dados imp.)</t>
   </si>
 </sst>
 </file>
@@ -152,7 +152,7 @@
     <numFmt numFmtId="168" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="169" formatCode="[$-416]d\-mmm;@"/>
   </numFmts>
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -296,75 +296,47 @@
     </font>
     <font>
       <b/>
-      <sz val="16"/>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="20"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="20"/>
+      <sz val="18"/>
       <color rgb="FF002060"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="20"/>
+      <sz val="18"/>
       <color rgb="FF002060"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="20"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="22"/>
+      <sz val="18"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="22"/>
-      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -568,7 +540,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="35">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -976,21 +948,6 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -1082,7 +1039,7 @@
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
@@ -1100,37 +1057,79 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="22" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="19" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="24" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="20" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="24" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="20" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="26" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="27" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="26" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="27" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="169" fontId="20" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1138,89 +1137,50 @@
     <xf numFmtId="169" fontId="20" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="23" fillId="34" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="19" fillId="34" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="24" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="22" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="24" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="22" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="24" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="22" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="24" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="22" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -1545,6 +1505,36 @@
     <c:fmtId val="2"/>
   </c:pivotSource>
   <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:pivotFmts>
       <c:pivotFmt>
@@ -1896,85 +1886,48 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>'Gráfico Gantt'!$A$5:$A$23</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="12"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Backlog do produto</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>Power bi (Análise dos dados)</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>User Story</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Relatório</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>Apresentação (CANVA)</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>Power bi (Análise dos dados)</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>Planilhas em Excel</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>Power bi (Análise dos dados)</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>Colab/Python</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>Power bi (Análise dos dados)</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>Gantt</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>Fluxograma</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Anderson</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Anderson/Sebastião</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>Luís</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>Sebastião</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>Sérgio</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>Sebastião/Anderson</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
+            <c:strRef>
+              <c:f>'Gráfico Gantt'!$A$5:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Anderson</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Luís</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sebastião</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Sérgio</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Santos/Sérgio/Luís/Léo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Gráfico Gantt'!$B$5:$B$23</c:f>
+              <c:f>'Gráfico Gantt'!$B$5:$B$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>13</c:v>
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>12</c:v>
+                <c:pt idx="3">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>57</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1982,365 +1935,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-CC0E-429F-BA81-117C74C9DD2A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Gráfico Gantt'!$C$3:$C$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>19/10/2025</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2">
-                <a:alpha val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:alpha val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="pt-BR"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="inEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="dk1">
-                          <a:lumMod val="50000"/>
-                          <a:lumOff val="50000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>'Gráfico Gantt'!$A$5:$A$23</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="12"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Backlog do produto</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>Power bi (Análise dos dados)</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>User Story</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Relatório</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>Apresentação (CANVA)</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>Power bi (Análise dos dados)</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>Planilhas em Excel</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>Power bi (Análise dos dados)</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>Colab/Python</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>Power bi (Análise dos dados)</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>Gantt</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>Fluxograma</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Anderson</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Anderson/Sebastião</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>Luís</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>Sebastião</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>Sérgio</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>Sebastião/Anderson</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Gráfico Gantt'!$C$5:$C$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="1">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>24</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-CC0E-429F-BA81-117C74C9DD2A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Gráfico Gantt'!$D$3:$D$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>18/10/2025</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3">
-                <a:alpha val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:alpha val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="pt-BR"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="inEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="dk1">
-                          <a:lumMod val="50000"/>
-                          <a:lumOff val="50000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>'Gráfico Gantt'!$A$5:$A$23</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="12"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Backlog do produto</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>Power bi (Análise dos dados)</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>User Story</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Relatório</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>Apresentação (CANVA)</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>Power bi (Análise dos dados)</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>Planilhas em Excel</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>Power bi (Análise dos dados)</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>Colab/Python</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>Power bi (Análise dos dados)</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>Gantt</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>Fluxograma</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Anderson</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Anderson/Sebastião</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>Luís</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>Sebastião</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>Sérgio</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>Sebastião/Anderson</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Gráfico Gantt'!$D$5:$D$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="10">
-                  <c:v>2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-CC0E-429F-BA81-117C74C9DD2A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2663,85 +2257,48 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>'Gráfico Gantt'!$A$5:$A$23</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="12"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Backlog do produto</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>Power bi (Análise dos dados)</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>User Story</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Relatório</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>Apresentação (CANVA)</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>Power bi (Análise dos dados)</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>Planilhas em Excel</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>Power bi (Análise dos dados)</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>Colab/Python</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>Power bi (Análise dos dados)</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>Gantt</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>Fluxograma</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Anderson</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Anderson/Sebastião</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>Luís</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>Sebastião</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>Sérgio</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>Sebastião/Anderson</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
+            <c:strRef>
+              <c:f>'Gráfico Gantt'!$A$5:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Anderson</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Luís</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sebastião</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Sérgio</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Santos/Sérgio/Luís/Léo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Gráfico Gantt'!$B$5:$B$23</c:f>
+              <c:f>'Gráfico Gantt'!$B$5:$B$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>13</c:v>
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>12</c:v>
+                <c:pt idx="3">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>57</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2749,243 +2306,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-EE20-4147-9384-8E764424F433}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Gráfico Gantt'!$C$3:$C$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>19/10/2025</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>'Gráfico Gantt'!$A$5:$A$23</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="12"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Backlog do produto</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>Power bi (Análise dos dados)</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>User Story</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Relatório</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>Apresentação (CANVA)</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>Power bi (Análise dos dados)</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>Planilhas em Excel</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>Power bi (Análise dos dados)</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>Colab/Python</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>Power bi (Análise dos dados)</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>Gantt</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>Fluxograma</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Anderson</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Anderson/Sebastião</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>Luís</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>Sebastião</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>Sérgio</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>Sebastião/Anderson</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Gráfico Gantt'!$C$5:$C$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="1">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>24</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-EE20-4147-9384-8E764424F433}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Gráfico Gantt'!$D$3:$D$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>18/10/2025</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>'Gráfico Gantt'!$A$5:$A$23</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="12"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Backlog do produto</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>Power bi (Análise dos dados)</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>User Story</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Relatório</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>Apresentação (CANVA)</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>Power bi (Análise dos dados)</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>Planilhas em Excel</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>Power bi (Análise dos dados)</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>Colab/Python</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>Power bi (Análise dos dados)</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>Gantt</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>Fluxograma</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Anderson</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Anderson/Sebastião</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>Luís</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>Sebastião</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>Sérgio</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>Sebastião/Anderson</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Gráfico Gantt'!$D$5:$D$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="10">
-                  <c:v>2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-EE20-4147-9384-8E764424F433}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4367,13 +3687,13 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>10583</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:rowOff>2</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>7524750</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>328840</xdr:rowOff>
+      <xdr:colOff>7722973</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>205946</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4445,47 +3765,54 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Autor" refreshedDate="45949.450020486111" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="13" xr:uid="{FADAAF24-1911-4632-8B2B-ED8C0C4C7B9A}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Autor" refreshedDate="45957.967878935182" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="14" xr:uid="{FADAAF24-1911-4632-8B2B-ED8C0C4C7B9A}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A12:D25" sheet="Novo Gantt"/>
+    <worksheetSource ref="A12:D26" sheet="Novo Gantt"/>
   </cacheSource>
   <cacheFields count="4">
     <cacheField name="Tarefa" numFmtId="0">
-      <sharedItems containsBlank="1" count="10">
+      <sharedItems containsBlank="1" count="14">
         <m/>
         <s v="User Story"/>
         <s v="Backlog do produto"/>
+        <s v="Mapa Mental"/>
         <s v="Fluxograma"/>
         <s v="Relatório"/>
+        <s v="Github do grupo"/>
         <s v="Gantt"/>
         <s v="Colab/Python"/>
-        <s v="Power bi (Análise dos dados)"/>
+        <s v="Power bi (Análise dos dados importação)"/>
+        <s v="Power bi (Análise dos dados exportação)"/>
         <s v="Apresentação (CANVA)"/>
-        <s v="Planilhas em Excel"/>
+        <s v="Power bi (Análise dos dados)" u="1"/>
+        <s v="Planilhas em Excel" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Integrante" numFmtId="0">
-      <sharedItems containsBlank="1" count="8">
+      <sharedItems containsBlank="1" count="11">
         <m/>
         <s v="Anderson"/>
-        <s v="Sebastião/Anderson"/>
-        <s v="Anderson/Sebastião"/>
+        <s v="Sebastião"/>
+        <s v="Santos/Sérgio/Luís/Léo"/>
         <s v="Sérgio"/>
         <s v="Luís"/>
-        <s v="Sebastião"/>
         <s v="Seastião/Anderson" u="1"/>
+        <s v="Santos/Sérgio/Luís/Sebastião" u="1"/>
+        <s v="Sebastião/Anderson" u="1"/>
+        <s v="Anderson / Sérgio / Luís / Sebastião" u="1"/>
+        <s v="Anderson/Sebastião" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Data de Início" numFmtId="169">
       <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2025-10-06T00:00:00" maxDate="2025-10-20T00:00:00" count="4">
         <m/>
         <d v="2025-10-06T00:00:00"/>
-        <d v="2025-10-19T00:00:00"/>
-        <d v="2025-10-18T00:00:00"/>
+        <d v="2025-10-18T00:00:00" u="1"/>
+        <d v="2025-10-19T00:00:00" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Duração em dias" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="2" maxValue="24"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="12" maxValue="57"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -4497,7 +3824,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="13">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="14">
   <r>
     <x v="0"/>
     <x v="0"/>
@@ -4508,115 +3835,128 @@
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
-    <n v="5"/>
+    <n v="14"/>
   </r>
   <r>
     <x v="2"/>
     <x v="1"/>
     <x v="1"/>
-    <n v="13"/>
+    <n v="16"/>
   </r>
   <r>
     <x v="3"/>
     <x v="2"/>
-    <x v="2"/>
-    <n v="24"/>
+    <x v="1"/>
+    <n v="23"/>
   </r>
   <r>
     <x v="4"/>
-    <x v="3"/>
     <x v="2"/>
-    <n v="24"/>
+    <x v="1"/>
+    <n v="23"/>
   </r>
   <r>
     <x v="5"/>
-    <x v="4"/>
     <x v="3"/>
-    <n v="2"/>
+    <x v="1"/>
+    <n v="57"/>
   </r>
   <r>
     <x v="6"/>
     <x v="4"/>
     <x v="1"/>
-    <n v="12"/>
+    <n v="57"/>
   </r>
   <r>
     <x v="7"/>
     <x v="4"/>
-    <x v="2"/>
-    <n v="12"/>
-  </r>
-  <r>
-    <x v="7"/>
     <x v="1"/>
-    <x v="2"/>
-    <n v="12"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <x v="5"/>
-    <x v="2"/>
-    <n v="12"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <x v="6"/>
-    <x v="2"/>
     <n v="12"/>
   </r>
   <r>
     <x v="8"/>
-    <x v="5"/>
-    <x v="2"/>
-    <n v="5"/>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="12"/>
   </r>
   <r>
     <x v="9"/>
-    <x v="6"/>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="33"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="33"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="1"/>
+    <n v="33"/>
+  </r>
+  <r>
+    <x v="9"/>
     <x v="2"/>
-    <n v="5"/>
+    <x v="1"/>
+    <n v="33"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="5"/>
+    <x v="1"/>
+    <n v="33"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{09D49C1F-3DB8-46C0-B47B-22D4EE88F242}" name="Tabela dinâmica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
-  <location ref="A3:E23" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <location ref="A3:C10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" showAll="0">
-      <items count="11">
+      <items count="15">
+        <item x="11"/>
+        <item x="2"/>
         <item x="8"/>
-        <item x="2"/>
-        <item x="6"/>
-        <item x="3"/>
-        <item x="9"/>
-        <item x="7"/>
         <item x="4"/>
+        <item m="1" x="13"/>
+        <item m="1" x="12"/>
+        <item x="5"/>
         <item x="1"/>
         <item x="0"/>
-        <item x="5"/>
+        <item x="7"/>
+        <item x="3"/>
+        <item x="6"/>
+        <item x="9"/>
+        <item x="10"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0">
-      <items count="9">
-        <item x="1"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item m="1" x="7"/>
-        <item x="6"/>
-        <item x="4"/>
-        <item h="1" x="0"/>
-        <item x="2"/>
-        <item t="default"/>
+      <items count="12">
+        <item sd="0" x="1"/>
+        <item sd="0" m="1" x="10"/>
+        <item sd="0" x="5"/>
+        <item sd="0" m="1" x="6"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="4"/>
+        <item h="1" sd="0" x="0"/>
+        <item sd="0" m="1" x="8"/>
+        <item sd="0" m="1" x="9"/>
+        <item sd="0" m="1" x="7"/>
+        <item sd="0" x="3"/>
+        <item t="default" sd="0"/>
       </items>
     </pivotField>
     <pivotField axis="axisCol" showAll="0">
       <items count="5">
         <item x="1"/>
-        <item x="2"/>
+        <item m="1" x="3"/>
         <item x="0"/>
-        <item x="3"/>
+        <item m="1" x="2"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -4626,60 +3966,21 @@
     <field x="1"/>
     <field x="0"/>
   </rowFields>
-  <rowItems count="19">
+  <rowItems count="6">
     <i>
       <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
     </i>
     <i>
       <x v="2"/>
     </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
     <i>
       <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
     </i>
     <i>
       <x v="5"/>
     </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="9"/>
-    </i>
     <i>
-      <x v="7"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
+      <x v="10"/>
     </i>
     <i t="grand">
       <x/>
@@ -4688,15 +3989,9 @@
   <colFields count="1">
     <field x="2"/>
   </colFields>
-  <colItems count="4">
+  <colItems count="2">
     <i>
       <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="3"/>
     </i>
     <i t="grand">
       <x/>
@@ -5039,495 +4334,529 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65AB7A3B-8C94-42DC-8A2C-8C82D348D851}">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="58" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="113.140625" customWidth="1"/>
-    <col min="8" max="8" width="25.85546875" customWidth="1"/>
+    <col min="1" max="1" width="40.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="113.109375" customWidth="1"/>
+    <col min="8" max="8" width="25.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="51" t="s">
-        <v>33</v>
-      </c>
-      <c r="H1" s="23" t="s">
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="35" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="29"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="24"/>
+    <row r="2" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="41"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="36"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
+    <row r="3" spans="1:8" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A3" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="25">
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="37">
         <f ca="1">TODAY()</f>
-        <v>45963</v>
+        <v>45971</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="29"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="25"/>
+    <row r="4" spans="1:8" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A4" s="41"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="37"/>
     </row>
-    <row r="5" spans="1:8" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A5" s="40" t="s">
+    <row r="5" spans="1:8" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A5" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="25"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="37"/>
     </row>
-    <row r="6" spans="1:8" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A6" s="40" t="s">
+    <row r="6" spans="1:8" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A6" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="25"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="37"/>
     </row>
-    <row r="7" spans="1:8" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A7" s="40" t="s">
+    <row r="7" spans="1:8" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A7" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="25"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="37"/>
     </row>
-    <row r="8" spans="1:8" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A8" s="40" t="s">
+    <row r="8" spans="1:8" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A8" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="25"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="37"/>
     </row>
-    <row r="9" spans="1:8" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A9" s="40" t="s">
+    <row r="9" spans="1:8" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A9" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="41"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="25"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="37"/>
     </row>
-    <row r="10" spans="1:8" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A10" s="48" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="49"/>
-      <c r="C10" s="49"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="25"/>
+    <row r="10" spans="1:8" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A10" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="37"/>
     </row>
-    <row r="11" spans="1:8" ht="28.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="43"/>
-      <c r="B11" s="44"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="25"/>
+    <row r="11" spans="1:8" ht="24" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A11" s="25"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="37"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="32" t="s">
+    <row r="12" spans="1:8" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A12" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="46" t="s">
+      <c r="B12" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="34" t="s">
+      <c r="C12" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="36" t="s">
+      <c r="D12" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="34" t="s">
+      <c r="E12" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="38" t="s">
+      <c r="F12" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="G12" s="9"/>
-      <c r="H12" s="25"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="37"/>
     </row>
-    <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="33"/>
-      <c r="B13" s="47"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="9"/>
+    <row r="13" spans="1:8" ht="24" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A13" s="45"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="10"/>
       <c r="H13" s="11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A14" s="15" t="s">
+    <row r="14" spans="1:8" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="16">
+      <c r="C14" s="13">
         <v>45936</v>
       </c>
-      <c r="D14" s="17">
-        <v>13</v>
-      </c>
-      <c r="E14" s="16">
-        <v>45970</v>
-      </c>
-      <c r="F14" s="18">
-        <v>45963</v>
-      </c>
-      <c r="G14" s="10"/>
-      <c r="H14" s="12" t="str">
+      <c r="D14" s="14">
+        <v>14</v>
+      </c>
+      <c r="E14" s="13">
+        <f>C14+D14</f>
+        <v>45950</v>
+      </c>
+      <c r="F14" s="15">
+        <v>45949</v>
+      </c>
+      <c r="G14" s="16"/>
+      <c r="H14" s="17" t="str">
         <f>_xlfn.IFS(F14&lt;E14,"Concluído",F14&gt;E14,"Atrasado",F14=E14,"Pendente")</f>
         <v>Concluído</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A15" s="19" t="s">
+    <row r="15" spans="1:8" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="20">
+      <c r="C15" s="19">
         <v>45936</v>
       </c>
-      <c r="D15" s="21">
-        <v>13</v>
-      </c>
-      <c r="E15" s="20">
-        <v>45970</v>
-      </c>
-      <c r="F15" s="22">
-        <v>45963</v>
-      </c>
-      <c r="G15" s="10"/>
-      <c r="H15" s="12" t="str">
-        <f t="shared" ref="H15:H25" si="0">_xlfn.IFS(F15&lt;E15,"Concluído",F15&gt;E15,"Atrasado",F15=E15,"Pendente")</f>
+      <c r="D15" s="20">
+        <v>16</v>
+      </c>
+      <c r="E15" s="13">
+        <f t="shared" ref="E15:E26" si="0">C15+D15</f>
+        <v>45952</v>
+      </c>
+      <c r="F15" s="21">
+        <v>45949</v>
+      </c>
+      <c r="G15" s="16"/>
+      <c r="H15" s="17" t="str">
+        <f t="shared" ref="H15:H26" si="1">_xlfn.IFS(F15&lt;E15,"Concluído",F15&gt;E15,"Atrasado",F15=E15,"Pendente")</f>
         <v>Concluído</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A16" s="19" t="s">
+    <row r="16" spans="1:8" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="19">
+        <v>45936</v>
+      </c>
+      <c r="D16" s="20">
+        <v>23</v>
+      </c>
+      <c r="E16" s="13">
+        <f t="shared" si="0"/>
+        <v>45959</v>
+      </c>
+      <c r="F16" s="21">
+        <v>45958</v>
+      </c>
+      <c r="G16" s="16"/>
+      <c r="H16" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>Concluído</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B17" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="19">
+        <v>45936</v>
+      </c>
+      <c r="D17" s="20">
+        <v>23</v>
+      </c>
+      <c r="E17" s="13">
+        <f t="shared" si="0"/>
+        <v>45959</v>
+      </c>
+      <c r="F17" s="21">
+        <v>45958</v>
+      </c>
+      <c r="G17" s="16"/>
+      <c r="H17" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>Concluído</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="19">
+        <v>45936</v>
+      </c>
+      <c r="D18" s="20">
+        <v>57</v>
+      </c>
+      <c r="E18" s="13">
+        <v>45985</v>
+      </c>
+      <c r="F18" s="21">
+        <v>45985</v>
+      </c>
+      <c r="G18" s="16"/>
+      <c r="H18" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="19">
+        <v>45936</v>
+      </c>
+      <c r="D19" s="20">
+        <v>57</v>
+      </c>
+      <c r="E19" s="13">
+        <v>45985</v>
+      </c>
+      <c r="F19" s="21">
+        <v>45985</v>
+      </c>
+      <c r="G19" s="16"/>
+      <c r="H19" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="19">
+        <v>45936</v>
+      </c>
+      <c r="D20" s="20">
+        <v>12</v>
+      </c>
+      <c r="E20" s="13">
+        <f t="shared" si="0"/>
+        <v>45948</v>
+      </c>
+      <c r="F20" s="21">
+        <v>45947</v>
+      </c>
+      <c r="G20" s="16"/>
+      <c r="H20" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>Concluído</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="19">
+        <v>45936</v>
+      </c>
+      <c r="D21" s="20">
+        <v>12</v>
+      </c>
+      <c r="E21" s="13">
+        <f t="shared" si="0"/>
+        <v>45948</v>
+      </c>
+      <c r="F21" s="21">
+        <v>45947</v>
+      </c>
+      <c r="G21" s="16"/>
+      <c r="H21" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>Concluído</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="19">
+        <v>45936</v>
+      </c>
+      <c r="D22" s="20">
+        <v>33</v>
+      </c>
+      <c r="E22" s="13">
+        <f t="shared" si="0"/>
+        <v>45969</v>
+      </c>
+      <c r="F22" s="21">
+        <v>45967</v>
+      </c>
+      <c r="G22" s="16"/>
+      <c r="H22" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>Concluído</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="20">
-        <v>45949</v>
-      </c>
-      <c r="D16" s="21">
-        <v>5</v>
-      </c>
-      <c r="E16" s="20">
-        <v>45970</v>
-      </c>
-      <c r="F16" s="22">
-        <v>45963</v>
-      </c>
-      <c r="G16" s="10"/>
-      <c r="H16" s="12" t="str">
+      <c r="B23" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="19">
+        <v>45936</v>
+      </c>
+      <c r="D23" s="20">
+        <v>33</v>
+      </c>
+      <c r="E23" s="13">
         <f t="shared" si="0"/>
+        <v>45969</v>
+      </c>
+      <c r="F23" s="21">
+        <v>45967</v>
+      </c>
+      <c r="G23" s="16"/>
+      <c r="H23" s="17" t="str">
+        <f t="shared" si="1"/>
         <v>Concluído</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A17" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="20">
-        <v>45949</v>
-      </c>
-      <c r="D17" s="21">
-        <v>24</v>
-      </c>
-      <c r="E17" s="20">
-        <f t="shared" ref="E15:E25" si="1">C17+D17</f>
-        <v>45973</v>
-      </c>
-      <c r="F17" s="22"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="12" t="str">
+    <row r="24" spans="1:8" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="19">
+        <v>45936</v>
+      </c>
+      <c r="D24" s="20">
+        <v>33</v>
+      </c>
+      <c r="E24" s="13">
         <f t="shared" si="0"/>
+        <v>45969</v>
+      </c>
+      <c r="F24" s="21">
+        <v>45967</v>
+      </c>
+      <c r="G24" s="16"/>
+      <c r="H24" s="17" t="str">
+        <f t="shared" si="1"/>
         <v>Concluído</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A18" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="B18" s="19" t="s">
+    <row r="25" spans="1:8" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="20">
-        <v>45948</v>
-      </c>
-      <c r="D18" s="21">
-        <v>2</v>
-      </c>
-      <c r="E18" s="20">
+      <c r="C25" s="19">
+        <v>45936</v>
+      </c>
+      <c r="D25" s="20">
+        <v>33</v>
+      </c>
+      <c r="E25" s="13">
+        <f t="shared" si="0"/>
+        <v>45969</v>
+      </c>
+      <c r="F25" s="21">
+        <v>45967</v>
+      </c>
+      <c r="G25" s="16"/>
+      <c r="H25" s="17" t="str">
         <f t="shared" si="1"/>
-        <v>45950</v>
-      </c>
-      <c r="F18" s="22">
-        <v>45949</v>
-      </c>
-      <c r="G18" s="10"/>
-      <c r="H18" s="12" t="str">
+        <v>Concluído</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="19">
+        <v>45936</v>
+      </c>
+      <c r="D26" s="20">
+        <v>33</v>
+      </c>
+      <c r="E26" s="13">
         <f t="shared" si="0"/>
-        <v>Concluído</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A19" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="20">
-        <v>45936</v>
-      </c>
-      <c r="D19" s="21">
-        <v>12</v>
-      </c>
-      <c r="E19" s="20">
+        <v>45969</v>
+      </c>
+      <c r="F26" s="21">
+        <v>45968</v>
+      </c>
+      <c r="G26" s="16"/>
+      <c r="H26" s="17" t="str">
         <f t="shared" si="1"/>
-        <v>45948</v>
-      </c>
-      <c r="F19" s="22">
-        <v>45947</v>
-      </c>
-      <c r="G19" s="10"/>
-      <c r="H19" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Concluído</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A20" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="20">
-        <v>45949</v>
-      </c>
-      <c r="D20" s="21">
-        <v>12</v>
-      </c>
-      <c r="E20" s="20">
-        <v>45970</v>
-      </c>
-      <c r="F20" s="22">
-        <v>45963</v>
-      </c>
-      <c r="G20" s="10"/>
-      <c r="H20" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Concluído</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A21" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" s="20">
-        <v>45949</v>
-      </c>
-      <c r="D21" s="21">
-        <v>12</v>
-      </c>
-      <c r="E21" s="20">
-        <v>45970</v>
-      </c>
-      <c r="F21" s="22">
-        <v>45963</v>
-      </c>
-      <c r="G21" s="10"/>
-      <c r="H21" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Concluído</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A22" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22" s="20">
-        <v>45949</v>
-      </c>
-      <c r="D22" s="21">
-        <v>12</v>
-      </c>
-      <c r="E22" s="20">
-        <v>45970</v>
-      </c>
-      <c r="F22" s="22">
-        <v>45963</v>
-      </c>
-      <c r="G22" s="10"/>
-      <c r="H22" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Concluído</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A23" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="B23" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" s="20">
-        <v>45949</v>
-      </c>
-      <c r="D23" s="21">
-        <v>12</v>
-      </c>
-      <c r="E23" s="20">
-        <v>45970</v>
-      </c>
-      <c r="F23" s="22">
-        <v>45963</v>
-      </c>
-      <c r="G23" s="10"/>
-      <c r="H23" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Concluído</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A24" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" s="20">
-        <v>45949</v>
-      </c>
-      <c r="D24" s="21">
-        <v>5</v>
-      </c>
-      <c r="E24" s="20">
-        <v>45970</v>
-      </c>
-      <c r="F24" s="22">
-        <v>45969</v>
-      </c>
-      <c r="G24" s="10"/>
-      <c r="H24" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Concluído</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="B25" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25" s="20">
-        <v>45949</v>
-      </c>
-      <c r="D25" s="21">
-        <v>5</v>
-      </c>
-      <c r="E25" s="20">
-        <v>45970</v>
-      </c>
-      <c r="F25" s="22">
-        <v>45969</v>
-      </c>
-      <c r="G25" s="10"/>
-      <c r="H25" s="13" t="str">
-        <f t="shared" si="0"/>
         <v>Concluído</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A9:F9"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="H3:H12"/>
@@ -5545,6 +4874,7 @@
     <mergeCell ref="A11:F11"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A9:F9"/>
   </mergeCells>
   <conditionalFormatting sqref="H13:H1048576">
     <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="Atrasado">
@@ -5562,13 +4892,13 @@
       <formula>NOT(ISERROR(SEARCH("Concluído",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H14:H25">
+  <conditionalFormatting sqref="H14:H26">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Pendente">
       <formula>NOT(ISERROR(SEARCH("Pendente",H14)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G14:G24">
-    <cfRule type="colorScale" priority="39">
+  <conditionalFormatting sqref="G14:G26">
+    <cfRule type="colorScale" priority="48">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5587,20 +4917,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3522C6AD-29B4-4C75-9D78-C87B851E90DC}">
-  <dimension ref="A3:E23"/>
+  <dimension ref="A3:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H28" sqref="G28:H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>19</v>
       </c>
@@ -5608,278 +4939,81 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="1">
         <v>45936</v>
       </c>
-      <c r="C4" s="1">
-        <v>45949</v>
-      </c>
-      <c r="D4" s="1">
-        <v>45948</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="C4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="4">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="C5" s="4">
-        <v>12</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4">
-        <v>30</v>
+        <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>7</v>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="B6" s="4">
-        <v>13</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4">
-        <v>13</v>
+        <v>66</v>
+      </c>
+      <c r="C6" s="4">
+        <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="4"/>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="4">
+        <v>79</v>
+      </c>
       <c r="C7" s="4">
-        <v>12</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4">
-        <v>12</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>10</v>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B8" s="4">
-        <v>5</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4">
-        <v>5</v>
+        <v>114</v>
+      </c>
+      <c r="C8" s="4">
+        <v>114</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="4"/>
+        <v>33</v>
+      </c>
+      <c r="B9" s="4">
+        <v>57</v>
+      </c>
       <c r="C9" s="4">
-        <v>24</v>
-      </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4">
-        <v>24</v>
+        <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="4"/>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="4">
+        <v>379</v>
+      </c>
       <c r="C10" s="4">
-        <v>24</v>
-      </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4">
-        <v>17</v>
-      </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4">
-        <v>5</v>
-      </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4">
-        <v>12</v>
-      </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4">
-        <v>17</v>
-      </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4">
-        <v>5</v>
-      </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4">
-        <v>12</v>
-      </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" s="4">
-        <v>12</v>
-      </c>
-      <c r="C17" s="4">
-        <v>12</v>
-      </c>
-      <c r="D17" s="4">
-        <v>2</v>
-      </c>
-      <c r="E17" s="4">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" s="4">
-        <v>12</v>
-      </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4">
-        <v>12</v>
-      </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4">
-        <v>2</v>
-      </c>
-      <c r="E20" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4">
-        <v>24</v>
-      </c>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4">
-        <v>24</v>
-      </c>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B23" s="4">
-        <v>30</v>
-      </c>
-      <c r="C23" s="4">
-        <v>106</v>
-      </c>
-      <c r="D23" s="4">
-        <v>2</v>
-      </c>
-      <c r="E23" s="4">
-        <v>138</v>
+        <v>379</v>
       </c>
     </row>
   </sheetData>
@@ -5889,12 +5023,11 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="8b4ed022-6705-4cac-96bf-fa54c8b5900a" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6074,17 +5207,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="8b4ed022-6705-4cac-96bf-fa54c8b5900a" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{033C67AE-15B3-49D8-9903-CFFB0C86690C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{264F2DF9-C677-4D22-89CA-83F2869B93E7}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="8b4ed022-6705-4cac-96bf-fa54c8b5900a"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6109,17 +5251,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{264F2DF9-C677-4D22-89CA-83F2869B93E7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{033C67AE-15B3-49D8-9903-CFFB0C86690C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="8b4ed022-6705-4cac-96bf-fa54c8b5900a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Novo Gantt.xlsx
+++ b/Novo Gantt.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" hidePivotFieldList="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCBBDF05-E898-4001-9B2E-226DC21487F8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D536658-DD9F-4071-B9DF-0B78DD7E77E7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5556" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Novo Gantt" sheetId="15" r:id="rId1"/>
@@ -17,7 +17,7 @@
   </definedNames>
   <calcPr calcId="179021"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId3"/>
+    <pivotCache cacheId="30" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="36">
   <si>
     <t>Sebastião</t>
   </si>
@@ -129,13 +129,13 @@
     <t>2° sprint (10/11/2025)</t>
   </si>
   <si>
-    <t>Santos/Sérgio/Luís/Léo</t>
-  </si>
-  <si>
     <t>Power bi (dados exp.)</t>
   </si>
   <si>
     <t>Power bi (dados imp.)</t>
+  </si>
+  <si>
+    <t>Sérgio / Anderson</t>
   </si>
 </sst>
 </file>
@@ -1039,7 +1039,7 @@
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
@@ -1092,15 +1092,6 @@
     <xf numFmtId="169" fontId="20" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1123,6 +1114,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1181,6 +1181,9 @@
     </xf>
     <xf numFmtId="169" fontId="22" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -1886,48 +1889,73 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
-              <c:f>'Gráfico Gantt'!$A$5:$A$10</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>Anderson</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Luís</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Sebastião</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Sérgio</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Santos/Sérgio/Luís/Léo</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:multiLvlStrRef>
+              <c:f>'Gráfico Gantt'!$A$5:$A$14</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="8"/>
+                <c:lvl>
+                  <c:pt idx="4">
+                    <c:v>Relatório</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Github do grupo</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Power bi (dados imp.)</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Power bi (dados exp.)</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Anderson</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Luís</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Sebastião</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Sérgio</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Sérgio / Anderson</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Gráfico Gantt'!$B$5:$B$10</c:f>
+              <c:f>'Gráfico Gantt'!$B$5:$B$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>63</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>66</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>79</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>114</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>66</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2257,48 +2285,73 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
-              <c:f>'Gráfico Gantt'!$A$5:$A$10</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>Anderson</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Luís</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Sebastião</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Sérgio</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Santos/Sérgio/Luís/Léo</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:multiLvlStrRef>
+              <c:f>'Gráfico Gantt'!$A$5:$A$14</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="8"/>
+                <c:lvl>
+                  <c:pt idx="4">
+                    <c:v>Relatório</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Github do grupo</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Power bi (dados imp.)</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Power bi (dados exp.)</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Anderson</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Luís</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Sebastião</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Sérgio</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Sérgio / Anderson</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Gráfico Gantt'!$B$5:$B$10</c:f>
+              <c:f>'Gráfico Gantt'!$B$5:$B$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>63</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>66</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>79</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>114</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>66</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3691,9 +3744,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>7722973</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>205946</xdr:rowOff>
+      <xdr:colOff>7524750</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3765,13 +3818,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Autor" refreshedDate="45957.967878935182" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="14" xr:uid="{FADAAF24-1911-4632-8B2B-ED8C0C4C7B9A}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Autor" refreshedDate="45994.899549884256" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="14" xr:uid="{FADAAF24-1911-4632-8B2B-ED8C0C4C7B9A}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A12:D26" sheet="Novo Gantt"/>
   </cacheSource>
   <cacheFields count="4">
     <cacheField name="Tarefa" numFmtId="0">
-      <sharedItems containsBlank="1" count="14">
+      <sharedItems containsBlank="1" count="16">
         <m/>
         <s v="User Story"/>
         <s v="Backlog do produto"/>
@@ -3781,26 +3834,31 @@
         <s v="Github do grupo"/>
         <s v="Gantt"/>
         <s v="Colab/Python"/>
-        <s v="Power bi (Análise dos dados importação)"/>
-        <s v="Power bi (Análise dos dados exportação)"/>
+        <s v="Power bi (dados imp.)"/>
+        <s v="Power bi (dados exp.)"/>
         <s v="Apresentação (CANVA)"/>
         <s v="Power bi (Análise dos dados)" u="1"/>
+        <s v="Power bi (Análise dos dados exportação)" u="1"/>
+        <s v="Power bi (Análise dos dados importação)" u="1"/>
         <s v="Planilhas em Excel" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Integrante" numFmtId="0">
-      <sharedItems containsBlank="1" count="11">
+      <sharedItems containsBlank="1" count="14">
         <m/>
         <s v="Anderson"/>
         <s v="Sebastião"/>
-        <s v="Santos/Sérgio/Luís/Léo"/>
+        <s v="Sérgio / Anderson"/>
         <s v="Sérgio"/>
         <s v="Luís"/>
+        <s v="Anderson / Sérgio / Luís / Sebastião" u="1"/>
+        <s v="Santos/Sérgio" u="1"/>
+        <s v="Santos/Sérgio/Luís/Léo" u="1"/>
+        <s v="Santos/Sérgio/Luís/Sebastião" u="1"/>
         <s v="Seastião/Anderson" u="1"/>
-        <s v="Santos/Sérgio/Luís/Sebastião" u="1"/>
+        <s v="Anderson/Sebastião" u="1"/>
+        <s v="Sérgio/Santos" u="1"/>
         <s v="Sebastião/Anderson" u="1"/>
-        <s v="Anderson / Sérgio / Luís / Sebastião" u="1"/>
-        <s v="Anderson/Sebastião" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Data de Início" numFmtId="169">
@@ -3863,7 +3921,7 @@
   </r>
   <r>
     <x v="6"/>
-    <x v="4"/>
+    <x v="3"/>
     <x v="1"/>
     <n v="57"/>
   </r>
@@ -3881,25 +3939,25 @@
   </r>
   <r>
     <x v="9"/>
-    <x v="4"/>
+    <x v="3"/>
     <x v="1"/>
     <n v="33"/>
   </r>
   <r>
     <x v="10"/>
-    <x v="1"/>
+    <x v="3"/>
     <x v="1"/>
     <n v="33"/>
   </r>
   <r>
     <x v="10"/>
-    <x v="5"/>
+    <x v="3"/>
     <x v="1"/>
     <n v="33"/>
   </r>
   <r>
     <x v="9"/>
-    <x v="2"/>
+    <x v="3"/>
     <x v="1"/>
     <n v="33"/>
   </r>
@@ -3913,16 +3971,16 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{09D49C1F-3DB8-46C0-B47B-22D4EE88F242}" name="Tabela dinâmica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
-  <location ref="A3:C10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{09D49C1F-3DB8-46C0-B47B-22D4EE88F242}" name="Tabela dinâmica1" cacheId="30" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+  <location ref="A3:C14" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" showAll="0">
-      <items count="15">
+      <items count="17">
         <item x="11"/>
         <item x="2"/>
         <item x="8"/>
         <item x="4"/>
-        <item m="1" x="13"/>
+        <item m="1" x="15"/>
         <item m="1" x="12"/>
         <item x="5"/>
         <item x="1"/>
@@ -3930,24 +3988,29 @@
         <item x="7"/>
         <item x="3"/>
         <item x="6"/>
+        <item m="1" x="14"/>
+        <item m="1" x="13"/>
         <item x="9"/>
         <item x="10"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0">
-      <items count="12">
+      <items count="15">
         <item sd="0" x="1"/>
-        <item sd="0" m="1" x="10"/>
+        <item h="1" sd="0" m="1" x="11"/>
         <item sd="0" x="5"/>
-        <item sd="0" m="1" x="6"/>
+        <item h="1" sd="0" m="1" x="10"/>
         <item sd="0" x="2"/>
         <item sd="0" x="4"/>
         <item h="1" sd="0" x="0"/>
-        <item sd="0" m="1" x="8"/>
-        <item sd="0" m="1" x="9"/>
-        <item sd="0" m="1" x="7"/>
-        <item sd="0" x="3"/>
+        <item h="1" sd="0" m="1" x="13"/>
+        <item h="1" sd="0" m="1" x="6"/>
+        <item h="1" sd="0" m="1" x="9"/>
+        <item h="1" sd="0" m="1" x="8"/>
+        <item h="1" m="1" x="7"/>
+        <item h="1" m="1" x="12"/>
+        <item x="3"/>
         <item t="default" sd="0"/>
       </items>
     </pivotField>
@@ -3966,7 +4029,7 @@
     <field x="1"/>
     <field x="0"/>
   </rowFields>
-  <rowItems count="6">
+  <rowItems count="10">
     <i>
       <x/>
     </i>
@@ -3980,7 +4043,19 @@
       <x v="5"/>
     </i>
     <i>
-      <x v="10"/>
+      <x v="13"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="11"/>
+    </i>
+    <i r="1">
+      <x v="14"/>
+    </i>
+    <i r="1">
+      <x v="15"/>
     </i>
     <i t="grand">
       <x/>
@@ -4336,23 +4411,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65AB7A3B-8C94-42DC-8A2C-8C82D348D851}">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.77734375" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="113.109375" customWidth="1"/>
-    <col min="8" max="8" width="25.88671875" customWidth="1"/>
+    <col min="1" max="1" width="40.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="113.140625" customWidth="1"/>
+    <col min="8" max="8" width="25.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
         <v>2</v>
       </c>
@@ -4368,7 +4443,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="41"/>
       <c r="B2" s="42"/>
       <c r="C2" s="42"/>
@@ -4378,7 +4453,7 @@
       <c r="G2" s="34"/>
       <c r="H2" s="36"/>
     </row>
-    <row r="3" spans="1:8" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A3" s="41" t="s">
         <v>20</v>
       </c>
@@ -4390,10 +4465,10 @@
       <c r="G3" s="9"/>
       <c r="H3" s="37">
         <f ca="1">TODAY()</f>
-        <v>45971</v>
+        <v>45994</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A4" s="41"/>
       <c r="B4" s="42"/>
       <c r="C4" s="42"/>
@@ -4403,93 +4478,93 @@
       <c r="G4" s="10"/>
       <c r="H4" s="37"/>
     </row>
-    <row r="5" spans="1:8" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A5" s="22" t="s">
+    <row r="5" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A5" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="24"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="32"/>
       <c r="G5" s="10"/>
       <c r="H5" s="37"/>
     </row>
-    <row r="6" spans="1:8" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A6" s="22" t="s">
+    <row r="6" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A6" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="24"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="32"/>
       <c r="G6" s="10"/>
       <c r="H6" s="37"/>
     </row>
-    <row r="7" spans="1:8" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A7" s="22" t="s">
+    <row r="7" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A7" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="24"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="32"/>
       <c r="G7" s="10"/>
       <c r="H7" s="37"/>
     </row>
-    <row r="8" spans="1:8" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A8" s="22" t="s">
+    <row r="8" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A8" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="24"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="32"/>
       <c r="G8" s="10"/>
       <c r="H8" s="37"/>
     </row>
-    <row r="9" spans="1:8" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A9" s="22" t="s">
+    <row r="9" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A9" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="24"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="32"/>
       <c r="G9" s="10"/>
       <c r="H9" s="37"/>
     </row>
-    <row r="10" spans="1:8" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A10" s="30" t="s">
+    <row r="10" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A10" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="32"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="29"/>
       <c r="G10" s="10"/>
       <c r="H10" s="37"/>
     </row>
-    <row r="11" spans="1:8" ht="24" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A11" s="25"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="27"/>
+    <row r="11" spans="1:8" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="22"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="24"/>
       <c r="G11" s="10"/>
       <c r="H11" s="37"/>
     </row>
-    <row r="12" spans="1:8" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A12" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="25" t="s">
         <v>26</v>
       </c>
       <c r="C12" s="46" t="s">
@@ -4507,9 +4582,9 @@
       <c r="G12" s="10"/>
       <c r="H12" s="37"/>
     </row>
-    <row r="13" spans="1:8" ht="24" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:8" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="45"/>
-      <c r="B13" s="29"/>
+      <c r="B13" s="26"/>
       <c r="C13" s="47"/>
       <c r="D13" s="49"/>
       <c r="E13" s="47"/>
@@ -4519,7 +4594,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>10</v>
       </c>
@@ -4545,7 +4620,7 @@
         <v>Concluído</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
         <v>7</v>
       </c>
@@ -4571,7 +4646,7 @@
         <v>Concluído</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
         <v>30</v>
       </c>
@@ -4597,7 +4672,7 @@
         <v>Concluído</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
         <v>11</v>
       </c>
@@ -4623,12 +4698,12 @@
         <v>Concluído</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
         <v>3</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C18" s="19">
         <v>45936</v>
@@ -4637,10 +4712,10 @@
         <v>57</v>
       </c>
       <c r="E18" s="13">
-        <v>45985</v>
+        <v>45993</v>
       </c>
       <c r="F18" s="21">
-        <v>45985</v>
+        <v>45993</v>
       </c>
       <c r="G18" s="16"/>
       <c r="H18" s="17" t="str">
@@ -4648,12 +4723,12 @@
         <v>Pendente</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
         <v>31</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="C19" s="19">
         <v>45936</v>
@@ -4665,15 +4740,15 @@
         <v>45985</v>
       </c>
       <c r="F19" s="21">
-        <v>45985</v>
+        <v>45984</v>
       </c>
       <c r="G19" s="16"/>
       <c r="H19" s="17" t="str">
         <f t="shared" si="1"/>
-        <v>Pendente</v>
+        <v>Concluído</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
         <v>2</v>
       </c>
@@ -4699,7 +4774,7 @@
         <v>Concluído</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
         <v>12</v>
       </c>
@@ -4725,12 +4800,12 @@
         <v>Concluído</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="18" t="s">
         <v>35</v>
-      </c>
-      <c r="B22" s="18" t="s">
-        <v>27</v>
       </c>
       <c r="C22" s="19">
         <v>45936</v>
@@ -4751,12 +4826,12 @@
         <v>Concluído</v>
       </c>
     </row>
-    <row r="23" spans="1:8" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="C23" s="19">
         <v>45936</v>
@@ -4777,12 +4852,12 @@
         <v>Concluído</v>
       </c>
     </row>
-    <row r="24" spans="1:8" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="C24" s="19">
         <v>45936</v>
@@ -4803,12 +4878,12 @@
         <v>Concluído</v>
       </c>
     </row>
-    <row r="25" spans="1:8" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="18" t="s">
         <v>35</v>
-      </c>
-      <c r="B25" s="18" t="s">
-        <v>27</v>
       </c>
       <c r="C25" s="19">
         <v>45936</v>
@@ -4829,7 +4904,7 @@
         <v>Concluído</v>
       </c>
     </row>
-    <row r="26" spans="1:8" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="18" t="s">
         <v>28</v>
       </c>
@@ -4857,7 +4932,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="H3:H12"/>
     <mergeCell ref="A1:F2"/>
@@ -4875,6 +4949,7 @@
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="A10:F10"/>
     <mergeCell ref="A9:F9"/>
+    <mergeCell ref="G1:G2"/>
   </mergeCells>
   <conditionalFormatting sqref="H13:H1048576">
     <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="Atrasado">
@@ -4917,21 +4992,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3522C6AD-29B4-4C75-9D78-C87B851E90DC}">
-  <dimension ref="A3:C10"/>
+  <dimension ref="A3:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H28" sqref="G28:H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>19</v>
       </c>
@@ -4939,7 +5013,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -4950,69 +5024,113 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="4">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="C5" s="4">
-        <v>63</v>
+        <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="4">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="C6" s="4">
-        <v>66</v>
+        <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="4">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="C7" s="4">
-        <v>79</v>
+        <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B8" s="4">
-        <v>114</v>
+        <v>24</v>
       </c>
       <c r="C8" s="4">
-        <v>114</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="4">
+        <v>246</v>
+      </c>
+      <c r="C9" s="4">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="52" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="4">
+        <v>57</v>
+      </c>
+      <c r="C10" s="4">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="52" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="4">
+        <v>57</v>
+      </c>
+      <c r="C11" s="4">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="52" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="4">
+        <v>66</v>
+      </c>
+      <c r="C12" s="4">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="4">
-        <v>57</v>
-      </c>
-      <c r="C9" s="4">
-        <v>57</v>
+      <c r="B13" s="4">
+        <v>66</v>
+      </c>
+      <c r="C13" s="4">
+        <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B14" s="4">
         <v>379</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C14" s="4">
         <v>379</v>
       </c>
     </row>
@@ -5023,11 +5141,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="8b4ed022-6705-4cac-96bf-fa54c8b5900a" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5207,26 +5326,17 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="8b4ed022-6705-4cac-96bf-fa54c8b5900a" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{264F2DF9-C677-4D22-89CA-83F2869B93E7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{033C67AE-15B3-49D8-9903-CFFB0C86690C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="8b4ed022-6705-4cac-96bf-fa54c8b5900a"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5251,9 +5361,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{033C67AE-15B3-49D8-9903-CFFB0C86690C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{264F2DF9-C677-4D22-89CA-83F2869B93E7}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="8b4ed022-6705-4cac-96bf-fa54c8b5900a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>